--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Angular\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4C7D3A-90F5-49B8-A326-3B3A336B251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="585" windowWidth="14055" windowHeight="11295" activeTab="1" xr2:uid="{DD874571-1330-4E33-8876-5FEC8736BBBE}"/>
+    <workbookView xWindow="14745" yWindow="585" windowWidth="14055" windowHeight="11295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
     <sheet name="HOOK" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -270,13 +269,82 @@
   </si>
   <si>
     <t>- websocket là một giao thức tạo ra thời gian thực</t>
+  </si>
+  <si>
+    <t>- 1. Cập nhật lại state</t>
+  </si>
+  <si>
+    <t>- 2. Cập nhật DOM (mutated)</t>
+  </si>
+  <si>
+    <t>- 3. Render lại UI</t>
+  </si>
+  <si>
+    <t>- 4. Gọi lại cleanup nếu deps thay đổi</t>
+  </si>
+  <si>
+    <t>- 5. Gọi useEffect callback</t>
+  </si>
+  <si>
+    <t>3.useLayoutEffect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2. Cập nhật DOM (mutated)</t>
+  </si>
+  <si>
+    <t>- 3. Gọi cleanup nếu deps thay đổi (sync)</t>
+  </si>
+  <si>
+    <t>- 4. Gọi useLayoutEffect callback (sync)</t>
+  </si>
+  <si>
+    <t>- 5. Render lại UI</t>
+  </si>
+  <si>
+    <t>Thứ tự thực hiện công việc</t>
+  </si>
+  <si>
+    <t>=&gt; sử dụng khi bạn set một State rồi lại kiểm tra và set lại state đó</t>
+  </si>
+  <si>
+    <t>4. useRef hook</t>
+  </si>
+  <si>
+    <t>- Ref viết tắt cảu từ reference có nghĩa là tham chiếu</t>
+  </si>
+  <si>
+    <t>- Lưu các giá trị qua một tham chiếu bên ngoài</t>
+  </si>
+  <si>
+    <t>- Luon tra ve mot object</t>
+  </si>
+  <si>
+    <t>- dung de get DOM element</t>
+  </si>
+  <si>
+    <t>VD: &lt;h1 ref={h1Ref}&gt;{count}&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> const h1Ref = useRef();</t>
+  </si>
+  <si>
+    <t>    })</t>
+  </si>
+  <si>
+    <t>useEffect(() =&gt; {</t>
+  </si>
+  <si>
+    <t>        console.log(h1Ref.current)</t>
+  </si>
+  <si>
+    <t>- Khi chúng ta dùng useRef để lưu giá trị, thì khi phải render lại một function component, giá trị đã lưu sẽ không bị thay đổi, mà vẫn giữ được giá trị đã lưu trước đó.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +365,17 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -319,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -330,6 +409,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB3B856-182E-49EB-B451-BCEE9EBDAC09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -689,11 +772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420A5BD-80C1-4535-9F77-8F8A3706D1C3}">
-  <dimension ref="B2:F91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,57 +1161,198 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D81" s="2"/>
       <c r="F81" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D82" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D85" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E86" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Angular\ReacJs-Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9576FEA-60A5-42F0-BA75-383663894349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="585" windowWidth="14055" windowHeight="11295" activeTab="1"/>
+    <workbookView xWindow="14745" yWindow="585" windowWidth="14055" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
     <sheet name="HOOK" sheetId="2" r:id="rId2"/>
+    <sheet name="Memo" sheetId="4" r:id="rId3"/>
+    <sheet name="Chú ý" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -338,12 +331,75 @@
   </si>
   <si>
     <t>- Khi chúng ta dùng useRef để lưu giá trị, thì khi phải render lại một function component, giá trị đã lưu sẽ không bị thay đổi, mà vẫn giữ được giá trị đã lưu trước đó.</t>
+  </si>
+  <si>
+    <t>- memo() -&gt; Higher Order Component (HOC)</t>
+  </si>
+  <si>
+    <t>- useCallBack()</t>
+  </si>
+  <si>
+    <t>- Hooks, HOC, Render props: đều có chung , một nhiệm vụ là kế thừa logic, giúp tránh việc lặp đi lặp lại giữa các component</t>
+  </si>
+  <si>
+    <t>1. Khái niệm</t>
+  </si>
+  <si>
+    <t>- Component bậc cao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- giúp bạn ghi nhớ lại những cái props của component, để quyết định có render lại component đó ko, tránh trường hợp render ko cần thiết. </t>
+  </si>
+  <si>
+    <t>- nhận vào component và check các prop của component đó có thay đổi ko(sử dụng toán tử 3 dấu bằng), nếu có thay đổi thì nó sẽ re-render</t>
+  </si>
+  <si>
+    <t>- áp dụng trường hợp có nhiều component con</t>
+  </si>
+  <si>
+    <t>5. useCallback</t>
+  </si>
+  <si>
+    <t>- Giúp chúng ta tránh tạo ra những hàm không cần thiết trong function component</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> var a = () =&gt; {}</t>
+  </si>
+  <si>
+    <t>var b = () =&gt; {}</t>
+  </si>
+  <si>
+    <t>=&gt; tạo ra vùng tham chiêu lưu func a</t>
+  </si>
+  <si>
+    <t>=&gt; tạo ra vùng tham chiêu lưu func b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a ===b =&gt; false</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>var handleIncrease = () =&gt; {</t>
+  </si>
+  <si>
+    <t>        setNumber(pre =&gt; pre + 1)</t>
+  </si>
+  <si>
+    <t>=&gt; khi setNumber nó sẽ re-render lại component và nó sẽ tạo lại một hàm handleIncrease mới</t>
+  </si>
+  <si>
+    <t>- Cú pháp: useCallback(callback, [deps])</t>
+  </si>
+  <si>
+    <t>=&gt;  nó sẽ tạo một tham chiếu ngoài component function để lưu hàm handleIncrease, và khi deps để trống nó sẽ gọi lại tham chiếu trước đó</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,7 +782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -772,11 +828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L139" sqref="L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,8 +1407,173 @@
         <v>100</v>
       </c>
     </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC61B1DC-D8B1-4A83-AB0B-1B4B5B92829E}">
+  <dimension ref="B2:B9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9576FEA-60A5-42F0-BA75-383663894349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE09170A-EC7A-4A01-B241-633BEF3E957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="585" windowWidth="14055" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14745" yWindow="585" windowWidth="14055" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,27 @@
     <sheet name="Memo" sheetId="4" r:id="rId3"/>
     <sheet name="Chú ý" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -394,6 +404,45 @@
   </si>
   <si>
     <t>=&gt;  nó sẽ tạo một tham chiếu ngoài component function để lưu hàm handleIncrease, và khi deps để trống nó sẽ gọi lại tham chiếu trước đó</t>
+  </si>
+  <si>
+    <t>6. useMemo</t>
+  </si>
+  <si>
+    <t>- Tránh thực hiện một logic nào đó ko cần thiết</t>
+  </si>
+  <si>
+    <t>- Cú pháp: useMemo(callback, [deps])</t>
+  </si>
+  <si>
+    <t>7. useReducer</t>
+  </si>
+  <si>
+    <t>- Cách hoạt động giống với redux</t>
+  </si>
+  <si>
+    <t>- Khi nào dùng: khi có kiểu dữ liệu lồng nhau hoặc có nhiều state, hoặc các state phụ nhau</t>
+  </si>
+  <si>
+    <t>- Sự khác biệt giữa useState và useReducer</t>
+  </si>
+  <si>
+    <t>+ useState</t>
+  </si>
+  <si>
+    <t>1. Init state</t>
+  </si>
+  <si>
+    <t>2. Action</t>
+  </si>
+  <si>
+    <t>+ useReducer</t>
+  </si>
+  <si>
+    <t>4. Dispatch: kích hoạt action</t>
+  </si>
+  <si>
+    <t>3. Reducer: hàm, nhận vào đầu vào và trả ra một kết quả mới</t>
   </si>
 </sst>
 </file>
@@ -829,10 +878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G139"/>
+  <dimension ref="B2:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L139" sqref="L139"/>
+    <sheetView topLeftCell="A129" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,6 +1527,36 @@
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C143" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C144" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1539,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,6 +1652,51 @@
         <v>115</v>
       </c>
     </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE09170A-EC7A-4A01-B241-633BEF3E957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E0948E-C821-47DB-9CB3-467AC6DEEE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="585" windowWidth="14055" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14745" yWindow="585" windowWidth="14055" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -443,6 +443,33 @@
   </si>
   <si>
     <t>3. Reducer: hàm, nhận vào đầu vào và trả ra một kết quả mới</t>
+  </si>
+  <si>
+    <t>8. useContext</t>
+  </si>
+  <si>
+    <t>Comp A =&gt; Comp B =&gt; Comp C</t>
+  </si>
+  <si>
+    <t>- Đơn giản hóa việc truyền dữ liệu giữa component cha và component con mà ko phải sử dụng prop</t>
+  </si>
+  <si>
+    <t>VD: Comp A =&gt; Comp C</t>
+  </si>
+  <si>
+    <t>- Hoạt động dựa trên 3 bước:</t>
+  </si>
+  <si>
+    <t>1. Create context</t>
+  </si>
+  <si>
+    <t>2. Provider: nhà cung cấp</t>
+  </si>
+  <si>
+    <t>3. Consumer: nhận dữ liệu từ nhà cung cấp</t>
+  </si>
+  <si>
+    <t>- Hoạt động theo các bước sau:</t>
   </si>
 </sst>
 </file>
@@ -878,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G149"/>
+  <dimension ref="B2:G164"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,19 +1571,88 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C148" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C149" s="2" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="2"/>
+      <c r="D151" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="2"/>
+      <c r="D152" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="2"/>
+      <c r="D153" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="2"/>
+      <c r="D154" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C161" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1620,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E0948E-C821-47DB-9CB3-467AC6DEEE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430989EC-324E-421F-9B38-7A2369783B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="585" windowWidth="14055" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16875" yWindow="600" windowWidth="14055" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="157">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -470,6 +470,45 @@
   </si>
   <si>
     <t>- Hoạt động theo các bước sau:</t>
+  </si>
+  <si>
+    <t>- Tạo một ngữ cảnh (Context) để ôm component cha và từ đó nó có truyền dữ liệu tới bất kỳ component con nào, để làm được điều đó nó sử dụng Provider</t>
+  </si>
+  <si>
+    <t>- Tại Component cha</t>
+  </si>
+  <si>
+    <t>- Component con:</t>
+  </si>
+  <si>
+    <t>- Sử dụng children để đánh dấu nội dung con sẽ được truyền vào</t>
+  </si>
+  <si>
+    <t>9. Context + useReducer =&gt; global state</t>
+  </si>
+  <si>
+    <t>- Vì state để ở global nên có thể sẽ có rất nhiều state vậy nên ta sử dụng useReducer thay vì sử dung useState</t>
+  </si>
+  <si>
+    <t>10. Custom 1 hook</t>
+  </si>
+  <si>
+    <t>11. So sánh Redux với React-context</t>
+  </si>
+  <si>
+    <t>- Debugging capabilities</t>
+  </si>
+  <si>
+    <t>- Middleware</t>
+  </si>
+  <si>
+    <t>- Addons and extensibility</t>
+  </si>
+  <si>
+    <t>- cross-platform and cross-framework usage</t>
+  </si>
+  <si>
+    <t>- Depending on your app's setup, much better performance than working with jusst Context</t>
   </si>
 </sst>
 </file>
@@ -560,6 +599,810 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53242</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>124480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0C01B6-7D98-1733-923E-29C7A5F6180E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821656" y="32194500"/>
+          <a:ext cx="6125430" cy="4696480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8E20DD-4F7A-3FA9-E0D9-0177C9FD8865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2226469" y="33087469"/>
+          <a:ext cx="3417093" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283369</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6028B267-67D9-4718-826B-4A837430A8F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2712244" y="34704338"/>
+          <a:ext cx="2978943" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle with Corners Rounded 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883D3E2C-92B7-AF78-6257-3ECF725157DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5679281" y="33778030"/>
+          <a:ext cx="1821656" cy="750094"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50898"/>
+            <a:gd name="adj2" fmla="val 79960"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>value là</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> dữ liệu cần truyền tới các component con</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>588843</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>9952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916E349A-A518-16E3-C769-3FA62004D1C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821656" y="37528500"/>
+          <a:ext cx="4839375" cy="3057952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67710F5-CE65-4009-A7B9-AFBD61123BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="38361937"/>
+          <a:ext cx="2978943" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle with Corners Rounded 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140CBD22-15AE-485F-9678-7400E53289C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429248" y="37409437"/>
+          <a:ext cx="2750345" cy="750094"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50898"/>
+            <a:gd name="adj2" fmla="val 79960"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>useContext</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> của create context của component cha và từ đó lấy đc dữ liệu của component cha {theme}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>167559</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>114741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB2E6E9-CA31-7720-117A-8C9DA1A0D67D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1214438" y="41910000"/>
+          <a:ext cx="6239746" cy="3162741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192881</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437286F9-DF40-4D3F-9A08-A0A58900DC07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1464469" y="42088593"/>
+          <a:ext cx="2978943" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259554</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle with Corners Rounded 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C39AD08-509E-4449-8279-C362067F8AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4510085" y="41181337"/>
+          <a:ext cx="2750345" cy="750094"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50898"/>
+            <a:gd name="adj2" fmla="val 79960"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>để</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> sử dụng context luôn phải import 2 thằng này =&gt; custom hook để import một thằng là đc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>181766</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD191DB9-13ED-9E04-AF6A-72AEECF0A4C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3619500"/>
+          <a:ext cx="5668166" cy="3943900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4879176-8318-4F99-BA87-13FBA9FA8D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="4324350"/>
+          <a:ext cx="2978943" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB602658-3A0A-4255-97AC-C197C410CFD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="6019799"/>
+          <a:ext cx="1381125" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -905,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G164"/>
+  <dimension ref="B2:G245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,9 +2498,70 @@
         <v>142</v>
       </c>
     </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C166" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1714,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:I16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +2697,13 @@
         <v>133</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430989EC-324E-421F-9B38-7A2369783B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E648D40C-6D88-4E5C-877E-0AA18ECE1E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="600" windowWidth="14055" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13680" yWindow="2745" windowWidth="14055" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="164">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -509,6 +509,27 @@
   </si>
   <si>
     <t>- Depending on your app's setup, much better performance than working with jusst Context</t>
+  </si>
+  <si>
+    <t>12. useImperativeHandle</t>
+  </si>
+  <si>
+    <t>- Giúp tùy chỉnh useRef</t>
+  </si>
+  <si>
+    <t>- function component ko có thuộc tính ref</t>
+  </si>
+  <si>
+    <t>- Ref truyền theo prop nó sẽ có mục đích riêng và nó sẽ ko truyền xuống thằng con vậy nên thằng con sẽ ko nhận đc prop.ref</t>
+  </si>
+  <si>
+    <t>- Cách sử lý:</t>
+  </si>
+  <si>
+    <t>+ Tại Component bạn muốn nhận ref từ bên ngoài: sử dụng forwardRef</t>
+  </si>
+  <si>
+    <t>- Tuy nhiên cách xử lý để toàn ven dữ liệu (tính đóng gói) ta sẽ xử lý như sau</t>
   </si>
 </sst>
 </file>
@@ -1217,6 +1238,366 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457942</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>114741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710435DB-317D-7FD1-C74A-568B52B5AD49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821656" y="48006000"/>
+          <a:ext cx="5315692" cy="3162741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6679C8D-8617-47FF-B4DB-6D54B7AD78C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3309938" y="49518093"/>
+          <a:ext cx="1809750" cy="178593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>445950</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>186026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E50C5C0-6456-1689-9880-A8CB0D3100D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428876" y="52030313"/>
+          <a:ext cx="4696480" cy="2067213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C741ACA-C04A-42D1-AD0F-6475F599A2CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3917157" y="53661469"/>
+          <a:ext cx="1809750" cy="178593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>497682</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>188119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0B86F7-5B1A-4651-8EEF-88E515C5CCB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2926557" y="52575619"/>
+          <a:ext cx="1809750" cy="178593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F4ED15-9F10-4F58-8661-3EBCBE30349F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722144" y="52918519"/>
+          <a:ext cx="754856" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1748,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G245"/>
+  <dimension ref="B2:G286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,29 +2914,64 @@
         <v>151</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C241" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C242" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C243" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C244" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C245" s="2" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C271" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D272" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E648D40C-6D88-4E5C-877E-0AA18ECE1E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317968C-CC54-4EBB-8AFB-CB327A2FF8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="2745" windowWidth="14055" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
     <sheet name="HOOK" sheetId="2" r:id="rId2"/>
     <sheet name="Memo" sheetId="4" r:id="rId3"/>
-    <sheet name="Chú ý" sheetId="3" r:id="rId4"/>
+    <sheet name="Css" sheetId="5" r:id="rId4"/>
+    <sheet name="Chú ý" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="186">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -530,13 +531,116 @@
   </si>
   <si>
     <t>- Tuy nhiên cách xử lý để toàn ven dữ liệu (tính đóng gói) ta sẽ xử lý như sau</t>
+  </si>
+  <si>
+    <t>1. Tổng quan</t>
+  </si>
+  <si>
+    <t>- Vì project đã được cấu hình webpack nên khi trong file mà có import file .css thì nó sẽ nạp nội dung của file css đó vào file hiện tại</t>
+  </si>
+  <si>
+    <t>=&gt; Development: npm start =&gt; css internal &lt;style&gt;&lt;/style&gt;</t>
+  </si>
+  <si>
+    <t>=&gt; Producttion: npm run build =&gt; css external (gom hết file css riêng lẻ thành một file)</t>
+  </si>
+  <si>
+    <t>2. Css Module</t>
+  </si>
+  <si>
+    <t>- Đây là một khái niệm giúp chúng ta tạo ra những file css hoạt động một cách độc lập ko ảnh hưởng gì tới nhau mặc dù bạn đặt tên class trùng nhau</t>
+  </si>
+  <si>
+    <t>- Hướng xử lý:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ đổi tên file css: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tên_file.module.css</t>
+    </r>
+  </si>
+  <si>
+    <t>- ưu điểm</t>
+  </si>
+  <si>
+    <t>+ File css Hoạt động một cách độc lập</t>
+  </si>
+  <si>
+    <t>+ Đi cùng với component, khi ko dùng component nữa thì css cũng ko còn =-&gt; ko gây ra thừa css</t>
+  </si>
+  <si>
+    <t>+ Chú ý: tag name ko thể module đc</t>
+  </si>
+  <si>
+    <r>
+      <t>Khi một dự án lớn, có nhiều component dẫn đến có nhiều file css đi kèm. Như vậy trong quá trình viết code CSS bạn sẽ rất khó kiểm soát việc đặt tên cho các class. Việc dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF292929"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CSS Module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF292929"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> sẽ giúp bạn không cần quan tâm đến việc bị đặt trùng tên class nữa.</t>
+    </r>
+  </si>
+  <si>
+    <t>Như vậy các bạn có thể viết code CSS mà không sợ bị ảnh hưởng đến các component khác.</t>
+  </si>
+  <si>
+    <t>3.  Thư viện clsx và clssnames</t>
+  </si>
+  <si>
+    <t>Install: npm I clsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Cách sử dụng: </t>
+  </si>
+  <si>
+    <t>+ b1: import clsx from 'clsx'</t>
+  </si>
+  <si>
+    <t>+ b2: &lt;button className={clsx(styles.btn, {
+                [styles.active]: false
+            })}&gt;Click me!&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- chú ý: </t>
+  </si>
+  <si>
+    <t>Viết prop như này &lt;Button primary /&gt; có nghĩa là truyền prop có tên primary và mang kiểu dữ liệu boolean = true</t>
+  </si>
+  <si>
+    <t>- Prop className nhận kiểu dữ liệu là chuỗi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +673,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292929"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF292929"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -590,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -605,6 +731,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2131,7 +2263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A268" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
@@ -3033,11 +3165,119 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0247A594-4926-4C5F-9AD3-F25456BFA155}">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D23:H23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,7 +3358,52 @@
         <v>147</v>
       </c>
     </row>
+    <row r="42" spans="2:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="44" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B44:J44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317968C-CC54-4EBB-8AFB-CB327A2FF8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9C176F-CB85-47AE-BB55-08B5995EAE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15975" yWindow="2040" windowWidth="14055" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
     <sheet name="HOOK" sheetId="2" r:id="rId2"/>
     <sheet name="Memo" sheetId="4" r:id="rId3"/>
     <sheet name="Css" sheetId="5" r:id="rId4"/>
-    <sheet name="Chú ý" sheetId="3" r:id="rId5"/>
+    <sheet name="Router" sheetId="6" r:id="rId5"/>
+    <sheet name="JWT" sheetId="7" r:id="rId6"/>
+    <sheet name="Chú ý" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="232">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -635,12 +637,185 @@
   <si>
     <t>- Prop className nhận kiểu dữ liệu là chuỗi</t>
   </si>
+  <si>
+    <t>4, SASS</t>
+  </si>
+  <si>
+    <t>- install Sass: npm add sass</t>
+  </si>
+  <si>
+    <t>- Cho bạn di chuyển qua lại giữa các trang trong website</t>
+  </si>
+  <si>
+    <t>2. reactjs router</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- install: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm install react-router-dom@6</t>
+    </r>
+  </si>
+  <si>
+    <t>Cách sử dụng:</t>
+  </si>
+  <si>
+    <t>- B1: Import BrowserRouter</t>
+  </si>
+  <si>
+    <t>- B2: Ôm component App trong BrowserRouter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chú ý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: một website chỉ có một bộ định tuyến thôi (tức là một BrowserRouter)</t>
+    </r>
+  </si>
+  <si>
+    <t>- B3: trong App Component:</t>
+  </si>
+  <si>
+    <t>- Tạo ra cơ chế định tuyến nội bộ trong reactjs</t>
+  </si>
+  <si>
+    <t>- exact: match chính xác đường dẫn</t>
+  </si>
+  <si>
+    <t>- path='*' những đường dẫn còn lại khác các đường dẫn đã cấu hình</t>
+  </si>
+  <si>
+    <t>3. Nested Route</t>
+  </si>
+  <si>
+    <t>- Tạo các submenu lồng nhau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ B1: </t>
+  </si>
+  <si>
+    <t>+ B2: Tạo Component AdminPage và cấu hình các route con bên trong là xong</t>
+  </si>
+  <si>
+    <t>4. Đọc Params, History, Location</t>
+  </si>
+  <si>
+    <t>- Location:</t>
+  </si>
+  <si>
+    <t>+ import hook trong react-router-dom là useLocation() hoặc useRouteMatch() để đọc pathname</t>
+  </si>
+  <si>
+    <t>- Đọc Params:</t>
+  </si>
+  <si>
+    <t>+ Sử dụng useLocation để đọc params</t>
+  </si>
+  <si>
+    <t>+ B1: let location = useLocation();</t>
+  </si>
+  <si>
+    <t>+ B2:let query = new URLSearchParams(location.search)</t>
+  </si>
+  <si>
+    <t>+ B3: Lấy ra {quert.get('param_name')}</t>
+  </si>
+  <si>
+    <t>TH1: đối với cách truyền param ?name=doan&amp;id=1</t>
+  </si>
+  <si>
+    <t>TH2: đối với cách truyền param category/:id</t>
+  </si>
+  <si>
+    <t>+ B1: let {id} = useParams()</t>
+  </si>
+  <si>
+    <t>- History:</t>
+  </si>
+  <si>
+    <t>+ Để back lại trang trước đó ta sử dụng hook useHistory()</t>
+  </si>
+  <si>
+    <t>+ B1: const history = useHistory()</t>
+  </si>
+  <si>
+    <t>+ B2: onClick={() =&gt; history.goBack()}</t>
+  </si>
+  <si>
+    <t>Để chuyển về một trang khác</t>
+  </si>
+  <si>
+    <t>+ B2: onClick={() =&gt; history.push('home')}</t>
+  </si>
+  <si>
+    <t>5. Xử lý giao diện Active Link Style</t>
+  </si>
+  <si>
+    <t>- Để check link người dùng chọn có khớp vs link hiện tại ko ta sử dụng</t>
+  </si>
+  <si>
+    <t>+ B1: const match = useRouterMatch({</t>
+  </si>
+  <si>
+    <t>path: item.path</t>
+  </si>
+  <si>
+    <t>})</t>
+  </si>
+  <si>
+    <t>=&gt; đối tượng match trả về null nếu ko tìm thấy</t>
+  </si>
+  <si>
+    <t>+ B2: className={match ? 'active' : 'inactive'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Gồm 3 phần: </t>
+  </si>
+  <si>
+    <t>+ Header: bao gồm thuật toán mã hóa và type là JWT</t>
+  </si>
+  <si>
+    <t>+ Payload: data cần truyền đi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Signature: mã hóa base64 header và payload từ đó mã hóa </t>
+  </si>
+  <si>
+    <t>- Cơ chế refresh token để bảo mật</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,13 +870,27 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -716,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -731,12 +920,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,6 +1925,664 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>515185</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>143641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE10D9BE-A5A7-52E9-7661-C28D7C31E97C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="2847975"/>
+          <a:ext cx="5982535" cy="5487166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467471</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>48456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77FBCD8-ADF1-4665-0ABD-0FEF65E46E4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="9334500"/>
+          <a:ext cx="5344271" cy="5953956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF0E239-00B4-8066-4628-7B935702E550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="9334500"/>
+          <a:ext cx="4591050" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4E2990-3A45-4EB3-BB30-3EF96626E05A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352801" y="13306426"/>
+          <a:ext cx="742950" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17EBC1D-9552-4584-ADDF-167C2BF3DFEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="13515975"/>
+          <a:ext cx="3752849" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D831AD-FDEE-B3F6-2A09-8EBE83110E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="9334501"/>
+          <a:ext cx="1562100" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56237"/>
+            <a:gd name="adj2" fmla="val -37500"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Import</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> các thành phần cần thiết</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Speech Bubble: Rectangle with Corners Rounded 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F965B8DF-6872-4104-ACD9-922739891D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229349" y="11344276"/>
+          <a:ext cx="3952875" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56237"/>
+            <a:gd name="adj2" fmla="val -37500"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Để</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> link chuyển page ta sử dụng Link và to đến path chúng ta muốn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>=&gt; Khi render nó sẽ render Link -&gt; thẻ a</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle with Corners Rounded 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECA283A-C453-4401-90BA-0DEDCBC91DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="13535026"/>
+          <a:ext cx="3181350" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56237"/>
+            <a:gd name="adj2" fmla="val -37500"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Định</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> nghĩa:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  + path: đường đẫn url</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  + element: react element tương ứng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>153187</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>162213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494A6C72-E9B7-5638-D1C6-7055BAC8BBDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="17145000"/>
+          <a:ext cx="5639587" cy="2067213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCD6EF9-1CC3-7B39-E445-5AF78C00F4C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="18126075"/>
+          <a:ext cx="3705225" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3166,10 +4015,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0247A594-4926-4C5F-9AD3-F25456BFA155}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,13 +4104,23 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3273,11 +4132,291 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC9925-76D0-4E3D-A748-E27ED063F45B}">
+  <dimension ref="B2:I135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D103" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D108" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C110" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D111" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D112" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D113" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D114" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D115" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D117" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D118" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D121" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D122" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D123" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D125" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D126" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C130" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D131" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D134" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D135" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1457756D-6193-4F21-9DC9-23B984F4E6B2}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
   <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,30 +4498,30 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="44" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9C176F-CB85-47AE-BB55-08B5995EAE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262F13F-5E13-4B24-B6FF-BB3D75B51F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="2040" windowWidth="14055" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11925" yWindow="1920" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Memo" sheetId="4" r:id="rId3"/>
     <sheet name="Css" sheetId="5" r:id="rId4"/>
     <sheet name="Router" sheetId="6" r:id="rId5"/>
-    <sheet name="JWT" sheetId="7" r:id="rId6"/>
-    <sheet name="Chú ý" sheetId="3" r:id="rId7"/>
+    <sheet name="Dự án Thực tế" sheetId="8" r:id="rId6"/>
+    <sheet name="JWT" sheetId="7" r:id="rId7"/>
+    <sheet name="Chú ý" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="234">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -809,6 +810,27 @@
   </si>
   <si>
     <t>- Cơ chế refresh token để bảo mật</t>
+  </si>
+  <si>
+    <t>I. Chuẩn bị</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- create project: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npx create-react-app my_project</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -920,14 +942,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4104,13 +4126,13 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -4135,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC9925-76D0-4E3D-A748-E27ED063F45B}">
   <dimension ref="B2:I135"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,13 +4269,13 @@
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D113" s="2" t="s">
@@ -4271,13 +4293,13 @@
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D118" s="2" t="s">
@@ -4290,14 +4312,14 @@
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D122" s="2" t="s">
@@ -4310,14 +4332,14 @@
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D126" s="2" t="s">
@@ -4367,10 +4389,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1457756D-6193-4F21-9DC9-23B984F4E6B2}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4411,7 +4459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
   <dimension ref="B2:J49"/>
   <sheetViews>
@@ -4498,30 +4546,30 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="44" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262F13F-5E13-4B24-B6FF-BB3D75B51F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2FF37E-AEE8-4205-B854-4E3DF43D1002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11925" yWindow="1920" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13485" yWindow="3495" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="264">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -815,14 +815,15 @@
     <t>I. Chuẩn bị</t>
   </si>
   <si>
+    <t>- Cài đặt thư viện customize-cra: để custom config của webpack</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">- create project: </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -832,12 +833,485 @@
       <t>npx create-react-app my_project</t>
     </r>
   </si>
+  <si>
+    <t>npm i customize-cra react-app-rewired -D</t>
+  </si>
+  <si>
+    <t>- Tại thư mục gốc tạo file config-overrides.js</t>
+  </si>
+  <si>
+    <r>
+      <t>module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>exports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>override</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>env</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// do stuff with the webpack config...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>- Tại file package.json: thay thế code sau</t>
+  </si>
+  <si>
+    <t>bằng</t>
+  </si>
+  <si>
+    <t>Override react-app-rewired</t>
+  </si>
+  <si>
+    <t>babel-plugin-module-resolver</t>
+  </si>
+  <si>
+    <t>- Thư viện giúp dẫn đến thư mục một cách ngắn gọn</t>
+  </si>
+  <si>
+    <t>- Cú pháp</t>
+  </si>
+  <si>
+    <t>npm install --save-dev  babel-plugin-module-resolver</t>
+  </si>
+  <si>
+    <t>- Tại thư mục gốc, tạo file .babelrc</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"plugins"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"module-resolver"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"alias"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>        }]</t>
+  </si>
+  <si>
+    <t>    ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"~"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"./src"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>- Sau này import chỉ cần dùng: import App from '~/App'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tạo file jsconfig.json để sau này chỉ cần ~ là nó sẽ sổ ra những file </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"compilerOptions"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"baseUrl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"paths"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"~/*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"src/*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Config file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> config-overrides.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để nạp file .babelrc vào webpack</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,8 +1374,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,6 +1440,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -950,6 +1491,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2608,6 +3161,143 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219616</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F465861-9A00-AD78-ECB8-FAC63B796789}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="2667000"/>
+          <a:ext cx="3877216" cy="1629002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591058</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708607C3-1102-A2F8-A677-CCE57FFC06B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="4762500"/>
+          <a:ext cx="3639058" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409973</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEC96C6-3C86-5B72-32DD-C87CABA8742F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="12382500"/>
+          <a:ext cx="2848373" cy="1714739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -4390,27 +5080,299 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2FF37E-AEE8-4205-B854-4E3DF43D1002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C824B2C-EA3F-4717-B950-C92400DEA238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="3495" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12030" yWindow="1650" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="291">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -1005,12 +1005,6 @@
     <t>bằng</t>
   </si>
   <si>
-    <t>Override react-app-rewired</t>
-  </si>
-  <si>
-    <t>babel-plugin-module-resolver</t>
-  </si>
-  <si>
     <t>- Thư viện giúp dẫn đến thư mục một cách ngắn gọn</t>
   </si>
   <si>
@@ -1282,8 +1276,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>- Config file</t>
+    <t>1. Override react-app-rewired</t>
+  </si>
+  <si>
+    <t>2. babel-plugin-module-resolver</t>
+  </si>
+  <si>
+    <r>
+      <t>3. Config file</t>
     </r>
     <r>
       <rPr>
@@ -1305,13 +1305,798 @@
       </rPr>
       <t xml:space="preserve"> để nạp file .babelrc vào webpack</t>
     </r>
+  </si>
+  <si>
+    <t>4. Cấu hình Prettier</t>
+  </si>
+  <si>
+    <t>- Để format lại code html, css, …</t>
+  </si>
+  <si>
+    <t>- Tạo file .prettierrc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"arrowParens"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"always"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"bracketSameLine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"bracketSpacing"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"embeddedLanguageFormatting"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"auto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"htmlWhitespaceSensitivity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"css"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"insertPragma"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"jsxSingleQuote"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"printWidth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"proseWrap"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"preserve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"quoteProps"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"as-needed"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"requirePragma"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"semi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"singleQuote"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"tabWidth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"trailingComma"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"all"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"useTabs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vueIndentScriptAndStyle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <t>Tạo .vscode/settings.json</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"editor.formatOnSave"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"editor.defaultFormatter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"esbenp.prettier-vscode"</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Cấu hình và sử dụng SASS</t>
+  </si>
+  <si>
+    <t>- Tạo global style component</t>
+  </si>
+  <si>
+    <t>- Cài đặt scss: npm i -D sass</t>
+  </si>
+  <si>
+    <t>- Reset css: npm install --save normalize.css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,6 +2211,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -5080,10 +5871,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
-  <dimension ref="B2:J64"/>
+  <dimension ref="B2:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5113,7 +5904,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -5178,32 +5969,32 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="15" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D42" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -5212,7 +6003,7 @@
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D43" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -5221,7 +6012,7 @@
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D44" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -5230,7 +6021,7 @@
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D45" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
@@ -5239,7 +6030,7 @@
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D46" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
@@ -5248,7 +6039,7 @@
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D47" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -5257,7 +6048,7 @@
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D48" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
@@ -5266,7 +6057,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D49" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
@@ -5284,17 +6075,17 @@
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D55" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -5303,7 +6094,7 @@
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D56" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -5312,7 +6103,7 @@
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D57" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -5321,7 +6112,7 @@
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D58" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -5330,7 +6121,7 @@
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D59" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -5339,7 +6130,7 @@
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D60" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -5367,6 +6158,312 @@
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E81" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E82" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E83" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E84" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E85" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E86" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E87" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E88" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E89" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E90" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E91" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E92" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E93" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+    </row>
+    <row r="94" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E94" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E95" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E96" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E97" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E98" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E99" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E104" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+    </row>
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E105" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+    </row>
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E106" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+    </row>
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E107" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+    </row>
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+    </row>
+    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+    </row>
+    <row r="112" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C112" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C824B2C-EA3F-4717-B950-C92400DEA238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761C3175-86AA-4582-8342-54763B8D0D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12030" yWindow="1650" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8940" yWindow="5175" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="294">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -2090,13 +2090,35 @@
   </si>
   <si>
     <t>- Reset css: npm install --save normalize.css</t>
+  </si>
+  <si>
+    <t>II. Nội dung chính</t>
+  </si>
+  <si>
+    <t>1. Phân tích tổng quan Layout</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. Cài đặt router: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm i react-router-dom</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2220,6 +2242,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2259,7 +2289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2276,12 +2306,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2294,6 +2318,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4082,6 +4113,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>562989</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>67136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA33992-EEAB-8216-18E8-190E8B0C60FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="22288500"/>
+          <a:ext cx="7268589" cy="3305636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5607,13 +5682,13 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -5871,16 +5946,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
-  <dimension ref="B2:L116"/>
+  <dimension ref="B2:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5903,7 +5978,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>261</v>
       </c>
       <c r="D8" s="1"/>
@@ -5914,48 +5989,48 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
@@ -5968,7 +6043,7 @@
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5993,85 +6068,85 @@
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
@@ -6084,76 +6159,76 @@
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
@@ -6161,7 +6236,7 @@
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6176,202 +6251,202 @@
       </c>
     </row>
     <row r="81" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
     </row>
     <row r="82" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
     </row>
     <row r="83" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
     </row>
     <row r="84" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
     </row>
     <row r="85" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
     </row>
     <row r="86" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
     </row>
     <row r="87" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
     </row>
     <row r="88" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
     </row>
     <row r="89" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
     </row>
     <row r="90" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
     </row>
     <row r="91" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
     </row>
     <row r="92" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
     </row>
     <row r="93" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
     </row>
     <row r="94" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
     </row>
     <row r="95" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
     </row>
     <row r="96" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
@@ -6379,75 +6454,75 @@
       </c>
     </row>
     <row r="104" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
     </row>
     <row r="107" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
     </row>
     <row r="108" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
     </row>
     <row r="109" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
     </row>
     <row r="112" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="13" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6464,6 +6539,21 @@
     <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="2" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B138" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6605,30 +6695,30 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
     </row>
     <row r="44" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761C3175-86AA-4582-8342-54763B8D0D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B69D95-9A2B-43B5-804D-FDF92D75DBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="5175" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14895" yWindow="2205" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="299">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -2112,6 +2112,21 @@
       </rPr>
       <t>npm i react-router-dom</t>
     </r>
+  </si>
+  <si>
+    <t>2. Cài đặt react-router-dom: npm I react-router-dom</t>
+  </si>
+  <si>
+    <t>3. Đưa cấu hình routes ra ngoài</t>
+  </si>
+  <si>
+    <t>- Bước 1: tại thư mục gốc tạo file routes/index.js</t>
+  </si>
+  <si>
+    <t>- Bước 2: tại file App.js</t>
+  </si>
+  <si>
+    <t>4. Xây dựng cơ chế tải layout</t>
   </si>
 </sst>
 </file>
@@ -4157,6 +4172,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>505406</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>47977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC03920-A1A1-A9EC-131A-3FE135787F4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="27393900"/>
+          <a:ext cx="4163006" cy="2524477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>86673</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>76742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D47D0E7-8AEC-C7B8-2767-461716B7E2FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="30441900"/>
+          <a:ext cx="6792273" cy="3886742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5946,10 +6049,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
-  <dimension ref="B2:L139"/>
+  <dimension ref="B2:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6554,6 +6657,31 @@
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B69D95-9A2B-43B5-804D-FDF92D75DBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B5E41-D570-4EB3-A769-CC826ECD292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14895" yWindow="2205" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="300">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -2127,6 +2127,39 @@
   </si>
   <si>
     <t>4. Xây dựng cơ chế tải layout</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7. cài đặt classnames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm i classnames</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6051,8 +6084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
   <dimension ref="B2:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6647,6 +6680,11 @@
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C136" s="13" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="21" x14ac:dyDescent="0.35">

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B5E41-D570-4EB3-A769-CC826ECD292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF9BAF2-C3E8-4859-8A91-6C78E83D732C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14895" yWindow="2205" windowWidth="14055" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14745" yWindow="2205" windowWidth="14055" windowHeight="11295" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="310">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -2160,13 +2160,201 @@
       </rPr>
       <t>npm i classnames</t>
     </r>
+  </si>
+  <si>
+    <t>5, Import font awesome vaof trong project</t>
+  </si>
+  <si>
+    <r>
+      <t>"@fortawesome/fontawesome-svg-core"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^1.3.0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"@fortawesome/free-brands-svg-icons"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^6.0.0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"@fortawesome/free-regular-svg-icons"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^6.0.0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"@fortawesome/free-solid-svg-icons"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^6.0.0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"@fortawesome/react-fontawesome"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^0.1.17"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>Mẹo: ctr+D =&gt; ctrll + shift + =&gt;, copy, alt =&gt; home =&gt; end</t>
+  </si>
+  <si>
+    <t>6. Sử dụng thư viện tippy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Cài đặt: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm i @tippyjs/react</t>
+    </r>
+  </si>
+  <si>
+    <t>- dùng để làm tooltip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2298,8 +2486,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF92672"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA6E22E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2324,6 +2535,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2337,7 +2554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2366,13 +2583,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4293,6 +4516,186 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>439062</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>10164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D6F18E-DDEB-6BE3-0BB4-CCD054AEBE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="36728400"/>
+          <a:ext cx="6535062" cy="4582164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C4F6DC-A079-4A2B-9D44-1801C7A1800E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="36928425"/>
+          <a:ext cx="4953000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E64075F-F954-49A9-8107-EFBA0D929A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105150" y="39995475"/>
+          <a:ext cx="4953000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5818,13 +6221,13 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -6082,16 +6485,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
-  <dimension ref="B2:L181"/>
+  <dimension ref="B2:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6688,7 +7091,7 @@
       </c>
     </row>
     <row r="138" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="16" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6717,9 +7120,92 @@
         <v>297</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C184" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C185" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C186" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C187" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C188" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C191" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6776,10 +7262,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
-  <dimension ref="B2:J49"/>
+  <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6861,30 +7347,30 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="44" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
@@ -6899,6 +7385,11 @@
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF9BAF2-C3E8-4859-8A91-6C78E83D732C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF2826E-9927-4E3A-BD62-5C45FEE0AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="2205" windowWidth="14055" windowHeight="11295" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14745" yWindow="2205" windowWidth="14055" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="320">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -2348,6 +2348,36 @@
   </si>
   <si>
     <t>- dùng để làm tooltip</t>
+  </si>
+  <si>
+    <t>- Convert ve boolean</t>
+  </si>
+  <si>
+    <t>- Không muốn sử dụng hover mà muốn sử dụng click ta sử dụng: trigger="click"</t>
+  </si>
+  <si>
+    <t>- placment="bottom" là vị trí hiển thị</t>
+  </si>
+  <si>
+    <t>- visible là hiện hay ẩn</t>
+  </si>
+  <si>
+    <t>VD: delay={[0, 200]}</t>
+  </si>
+  <si>
+    <t>- delay sau khoang bao nhieu giay [bat dau, move khoi]</t>
+  </si>
+  <si>
+    <t>- Offset de chinh vi tri: offset={[10,10]}</t>
+  </si>
+  <si>
+    <t>7. Tạo component Image</t>
+  </si>
+  <si>
+    <t>- Tại sao phải tạo: trường hợp có lỗi không thể load ảnh thì sẽ hiển thị ảnh mặc định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- onClickOutside: sự kiện khi Click bên ngoài tippy thì xử lý cái gì đó </t>
   </si>
 </sst>
 </file>
@@ -4881,6 +4911,118 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219877</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7CD857-E624-61C6-C736-97372D5BA87D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1227667" y="11324167"/>
+          <a:ext cx="5744377" cy="2591162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121443</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCF7538-E226-4ECD-BDDE-42D8B80F7917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2032001" y="11747501"/>
+          <a:ext cx="3000109" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5229,7 +5371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G286"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A244" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
@@ -6485,10 +6627,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
-  <dimension ref="B2:L221"/>
+  <dimension ref="B2:L231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7206,6 +7348,51 @@
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C221" s="2" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C225" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C226" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C228" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C229" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C231" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -7262,10 +7449,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
-  <dimension ref="B2:J51"/>
+  <dimension ref="B2:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7390,6 +7577,11 @@
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF2826E-9927-4E3A-BD62-5C45FEE0AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D0D8DE-D2E6-4D43-96EF-61D2BA2EC67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="2205" windowWidth="14055" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11385" yWindow="2385" windowWidth="14055" windowHeight="11295" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Dự án Thực tế" sheetId="8" r:id="rId6"/>
     <sheet name="JWT" sheetId="7" r:id="rId7"/>
     <sheet name="Chú ý" sheetId="3" r:id="rId8"/>
+    <sheet name="Thư viện Axios" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="331">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -2378,13 +2379,65 @@
   </si>
   <si>
     <t xml:space="preserve">- onClickOutside: sự kiện khi Click bên ngoài tippy thì xử lý cái gì đó </t>
+  </si>
+  <si>
+    <t>- Được base trên Promise</t>
+  </si>
+  <si>
+    <t>2. Cài đặt</t>
+  </si>
+  <si>
+    <t>npm install axios</t>
+  </si>
+  <si>
+    <t>3. Cách sử dụng</t>
+  </si>
+  <si>
+    <t>- import axios from 'axios';</t>
+  </si>
+  <si>
+    <t>B1: Tạo instance:</t>
+  </si>
+  <si>
+    <t>baseURL: 'http://some-domain.com/api/',</t>
+  </si>
+  <si>
+    <t>timeout: 1000,</t>
+  </si>
+  <si>
+    <t>header: {'X-Custom-Header': 'footer'}</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instance =  axios.create({</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2539,8 +2592,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2571,6 +2631,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2584,7 +2650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2626,6 +2692,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6629,7 +6697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
   <dimension ref="B2:L231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+    <sheetView topLeftCell="A217" workbookViewId="0">
       <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
@@ -7592,4 +7660,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02185C21-AD38-4AD3-8CBD-8FA39E0C6CF5}">
+  <dimension ref="B2:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D0D8DE-D2E6-4D43-96EF-61D2BA2EC67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A73BB13-077E-4383-87DE-D5F2C67568B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="2385" windowWidth="14055" windowHeight="11295" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14655" yWindow="1695" windowWidth="14055" windowHeight="11295" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="JWT" sheetId="7" r:id="rId7"/>
     <sheet name="Chú ý" sheetId="3" r:id="rId8"/>
     <sheet name="Thư viện Axios" sheetId="9" r:id="rId9"/>
+    <sheet name="Sửa lỗi và hoàn thiện phần Head" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="341">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -2431,6 +2432,36 @@
       </rPr>
       <t xml:space="preserve"> instance =  axios.create({</t>
     </r>
+  </si>
+  <si>
+    <t>- Link logo về trang chủ</t>
+  </si>
+  <si>
+    <t>- Sửa font chữ trong ô tìm kiếm</t>
+  </si>
+  <si>
+    <t>- Không cho nhập ký tự đầu tiên là space trong ô tìm kiếm</t>
+  </si>
+  <si>
+    <t>- Bỏ qua hành vi focus vào ô tìm kiếm khi nhấn submit</t>
+  </si>
+  <si>
+    <t>- Không ấn menu khi click vào avatar</t>
+  </si>
+  <si>
+    <t>- Xử lý thanh cuộn trong menu đa cấp, khi có nhiều content</t>
+  </si>
+  <si>
+    <t>- Thêm style overlay cho thanh cuộn body</t>
+  </si>
+  <si>
+    <t>- Sửa title trang và update favicon</t>
+  </si>
+  <si>
+    <t>- Fix warning thư viện Tippy</t>
+  </si>
+  <si>
+    <t>- appendTo={() =&gt; document.body}</t>
   </si>
 </sst>
 </file>
@@ -2686,14 +2717,14 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5435,6 +5466,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4442EAE2-F8FF-4C0D-A446-57EF10F2022F}">
+  <dimension ref="B2:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G286"/>
@@ -6431,13 +6522,13 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -6695,10 +6786,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
-  <dimension ref="B2:L231"/>
+  <dimension ref="B2:L232"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="I234" sqref="I234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7454,12 +7545,17 @@
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
+      <c r="C230" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C231" s="2" t="s">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C232" s="2" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7602,30 +7698,30 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="44" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
@@ -7666,7 +7762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02185C21-AD38-4AD3-8CBD-8FA39E0C6CF5}">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -7708,62 +7804,62 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A73BB13-077E-4383-87DE-D5F2C67568B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36683672-0482-46DD-AE55-19A8D52E3CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="1695" windowWidth="14055" windowHeight="11295" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="1500" windowWidth="14055" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="348">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -2462,6 +2462,27 @@
   </si>
   <si>
     <t>- appendTo={() =&gt; document.body}</t>
+  </si>
+  <si>
+    <t>- Các môi trường phát triển</t>
+  </si>
+  <si>
+    <t>+ Local/development</t>
+  </si>
+  <si>
+    <t>+ Test/Staging</t>
+  </si>
+  <si>
+    <t>+ Production</t>
+  </si>
+  <si>
+    <t>+ UAT</t>
+  </si>
+  <si>
+    <t>8. Tìm hiểu thư viện PropTypes</t>
+  </si>
+  <si>
+    <t>- import PropTypes from 'prop-types'</t>
   </si>
 </sst>
 </file>
@@ -6786,10 +6807,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
-  <dimension ref="B2:L232"/>
+  <dimension ref="B2:L235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="I234" sqref="I234"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7550,13 +7571,23 @@
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
+      <c r="B231" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C232" s="2" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C235" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7613,10 +7644,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
-  <dimension ref="B2:J53"/>
+  <dimension ref="B2:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7746,6 +7777,31 @@
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOANDO\Desktop\ReacJs-Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Angular\ReacJs-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36683672-0482-46DD-AE55-19A8D52E3CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="1500" windowWidth="14055" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="1500" windowWidth="14055" windowHeight="11295" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chuẩn bị" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="Thư viện Axios" sheetId="9" r:id="rId9"/>
     <sheet name="Sửa lỗi và hoàn thiện phần Head" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="349">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -2484,11 +2483,14 @@
   <si>
     <t>- import PropTypes from 'prop-types'</t>
   </si>
+  <si>
+    <t>6. Để xử lý thằng link nào đc active ta sử dụng NavLink</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5442,7 +5444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5488,7 +5490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4442EAE2-F8FF-4C0D-A446-57EF10F2022F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5548,7 +5550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G286"/>
   <sheetViews>
     <sheetView topLeftCell="A244" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6402,7 +6404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC61B1DC-D8B1-4A83-AB0B-1B4B5B92829E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -6453,7 +6455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0247A594-4926-4C5F-9AD3-F25456BFA155}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -6571,11 +6573,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC9925-76D0-4E3D-A748-E27ED063F45B}">
-  <dimension ref="B2:I135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I137"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="M125" sqref="M125"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6768,34 +6770,39 @@
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C130" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D131" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D134" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D135" s="2" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6806,10 +6813,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC586F05-E1D9-4BD2-A973-9FB851DCD088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+    <sheetView topLeftCell="A220" workbookViewId="0">
       <selection activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
@@ -7598,7 +7605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1457756D-6193-4F21-9DC9-23B984F4E6B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7643,7 +7650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76A81E-C35A-40D0-887C-046B85BCBB6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J74"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7815,7 +7822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02185C21-AD38-4AD3-8CBD-8FA39E0C6CF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="354">
   <si>
     <t>I) Cách tạo 1 project với reactjs</t>
   </si>
@@ -2485,13 +2485,326 @@
   </si>
   <si>
     <t>6. Để xử lý thằng link nào đc active ta sử dụng NavLink</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Cơ chế hoạt động: nó sẽ so sánh thằng </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trên url với thằng prop </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>và nó sẽ tự  thêm class active nếu nó trùng nhau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NavLink</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>className</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'menu-item'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>active:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isActive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>})</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>+ thằng nav và nav.isActive ở đâu ra thì nó là của thằng NavLink</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>- Để css active trong module.scss thì ta phải chuyển nó về dạng cx thì mới viết scss đc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2653,6 +2966,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2704,7 +3031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2747,6 +3074,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6574,10 +6904,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I137"/>
+  <dimension ref="B2:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="K144" sqref="K144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6770,39 +7100,73 @@
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C130" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D131" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D134" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D135" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C138" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C139" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C140" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D141" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
